--- a/biology/Botanique/Épilobe_à_fruits_courts/Épilobe_à_fruits_courts.xlsx
+++ b/biology/Botanique/Épilobe_à_fruits_courts/Épilobe_à_fruits_courts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_%C3%A0_fruits_courts</t>
+          <t>Épilobe_à_fruits_courts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Épilobe d'automne, Épilobe à fruits courts
 Epilobium brachycarpum, de noms communs Épilobe d'automne, Épilobe à fruits courts, est une espèce de plantes herbacée annuelle de la famille des Onagracées, originaire d'Amérique du Nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_%C3%A0_fruits_courts</t>
+          <t>Épilobe_à_fruits_courts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante annuelle de 2 à 20 dm, glabre et pelant proximalement, strigeux et généralement à poils glanduleux distalement. Les feuilles sont généralement précoces-caduques, de 10–55 mm, linéaires à étroitement elliptiques, acuminées, généralement repliées le long de la nervure médiane, plus ou moins glabres ; le pétiole mesure de 0 à 4 mm[3].
-Appareil reproducteur
-L'inflorescence est une panicule ou grappe. La fleur est un hypanthium de 1,5-−8 (16) mm ; les sépales mesurent de 1,2 à 8 mm ; les pétales de 2 à 15 (20) mm, blancs à rose-violet ; le stigmate est parfois à 4 lobes. Le fruit mesure de 15 à 32 mm, glabre ou glanduleux, au bout d'un pédicelle de 1 à 17 mm. Les graines font 1,5–2,7 mm, sont papillées, en touffe de poils facilement caduques. Il y a 24 chromosomes dans les cellules diploïdes (2n=24)[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle de 2 à 20 dm, glabre et pelant proximalement, strigeux et généralement à poils glanduleux distalement. Les feuilles sont généralement précoces-caduques, de 10–55 mm, linéaires à étroitement elliptiques, acuminées, généralement repliées le long de la nervure médiane, plus ou moins glabres ; le pétiole mesure de 0 à 4 mm.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_%C3%A0_fruits_courts</t>
+          <t>Épilobe_à_fruits_courts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est native d'Amérique du Nord mais a été introduite en Europe et en Argentine[4]. Elle pousse dans les friches, les zones perturbées, les stations ensoleillées, sur sol caillouteux. C'est une espèce pionnière, en voie d'installation en Europe, plus fréquente au niveau de la Loire et de l'Allier ; elle semble se propager le long des voies de communication, notamment ferroviaires[5].
-Dans son aire d'origine, elle pousse sur sol sec ou humide de façon saisonnière, souvent perturbé dans les bois ouverts, les prairies, en particulier le long des routes, les berges et les sols exondés, jusqu’à une altitude de 3 300 m[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est une panicule ou grappe. La fleur est un hypanthium de 1,5-−8 (16) mm ; les sépales mesurent de 1,2 à 8 mm ; les pétales de 2 à 15 (20) mm, blancs à rose-violet ; le stigmate est parfois à 4 lobes. Le fruit mesure de 15 à 32 mm, glabre ou glanduleux, au bout d'un pédicelle de 1 à 17 mm. Les graines font 1,5–2,7 mm, sont papillées, en touffe de poils facilement caduques. Il y a 24 chromosomes dans les cellules diploïdes (2n=24).
 </t>
         </is>
       </c>
@@ -560,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pilobe_%C3%A0_fruits_courts</t>
+          <t>Épilobe_à_fruits_courts</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +595,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est native d'Amérique du Nord mais a été introduite en Europe et en Argentine. Elle pousse dans les friches, les zones perturbées, les stations ensoleillées, sur sol caillouteux. C'est une espèce pionnière, en voie d'installation en Europe, plus fréquente au niveau de la Loire et de l'Allier ; elle semble se propager le long des voies de communication, notamment ferroviaires.
+Dans son aire d'origine, elle pousse sur sol sec ou humide de façon saisonnière, souvent perturbé dans les bois ouverts, les prairies, en particulier le long des routes, les berges et les sols exondés, jusqu’à une altitude de 3 300 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Épilobe_à_fruits_courts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pilobe_%C3%A0_fruits_courts</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de juillet à septembre[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juillet à septembre.
 </t>
         </is>
       </c>
